--- a/REPORTS/RESOURCES/gantt.xlsx
+++ b/REPORTS/RESOURCES/gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam Dixon\Documents\SET09118_COURSEWORK\REPORT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam Dixon\Documents\SET09118_COURSEWORK\REPORTS\RESOURCES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,13 +105,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,6 +332,48 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$D$4:$D$11</c:f>
@@ -408,11 +450,11 @@
         </c:dLbls>
         <c:gapWidth val="83"/>
         <c:overlap val="100"/>
-        <c:axId val="354507016"/>
-        <c:axId val="354506232"/>
+        <c:axId val="367232832"/>
+        <c:axId val="367234400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="354507016"/>
+        <c:axId val="367232832"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -455,7 +497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354506232"/>
+        <c:crossAx val="367234400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -463,7 +505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354506232"/>
+        <c:axId val="367234400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42483"/>
@@ -516,7 +558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354507016"/>
+        <c:crossAx val="367232832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="16"/>
@@ -1411,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,12 +1465,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -1452,7 +1494,7 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>42401</v>
       </c>
       <c r="C4" s="1">
@@ -1467,7 +1509,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>42415</v>
       </c>
       <c r="C5" s="1">
@@ -1482,7 +1524,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>42418</v>
       </c>
       <c r="C6" s="1">
@@ -1497,7 +1539,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>42424</v>
       </c>
       <c r="C7" s="1">
@@ -1512,7 +1554,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>42436</v>
       </c>
       <c r="C8" s="1">
@@ -1527,7 +1569,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>42439</v>
       </c>
       <c r="C9" s="1">
@@ -1542,7 +1584,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>42447</v>
       </c>
       <c r="C10" s="1">
@@ -1557,7 +1599,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>42462</v>
       </c>
       <c r="C11" s="1">
